--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="6060"/>
+    <workbookView windowWidth="12840" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>快递员@./bubble.xlsx,小女孩@./bubble.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbFoodInfo</t>
+  </si>
+  <si>
+    <t>FoodBaseInfo</t>
+  </si>
+  <si>
+    <t>食材基础信息@./food.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1075,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1240,6 +1249,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12840" windowHeight="6720"/>
+    <workbookView windowWidth="22200" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -136,13 +136,22 @@
     <t>快递员@./bubble.xlsx,小女孩@./bubble.xlsx</t>
   </si>
   <si>
-    <t>food.TbFoodInfo</t>
-  </si>
-  <si>
-    <t>FoodBaseInfo</t>
-  </si>
-  <si>
-    <t>食材基础信息@./food.xlsx</t>
+    <t>food.TbMaterial</t>
+  </si>
+  <si>
+    <t>FoodMaterial</t>
+  </si>
+  <si>
+    <t>食材@./material.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbMenuInfo</t>
+  </si>
+  <si>
+    <t>MenuInfo</t>
+  </si>
+  <si>
+    <t>菜谱@./menu.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1084,18 +1093,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1263,6 +1272,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="13140"/>
+    <workbookView windowWidth="20955" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>菜谱@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>TbItem</t>
+  </si>
+  <si>
+    <t>ItemBaseInfo</t>
+  </si>
+  <si>
+    <t>道具@./items.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1093,13 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1286,6 +1295,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="13140"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>道具@./items.xlsx</t>
+  </si>
+  <si>
+    <t>TbQTE</t>
+  </si>
+  <si>
+    <t>QTEInfo</t>
+  </si>
+  <si>
+    <t>QTE@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbCookPrefab</t>
+  </si>
+  <si>
+    <t>CookPrefabInfo</t>
+  </si>
+  <si>
+    <t>制作场景@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbFlavour</t>
+  </si>
+  <si>
+    <t>FlavourInfo</t>
+  </si>
+  <si>
+    <t>口味@./menu.xlsx</t>
   </si>
 </sst>
 </file>
@@ -189,6 +216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -220,14 +255,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,31 +673,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,13 +718,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -709,10 +736,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -727,60 +754,63 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1309,7 +1339,52 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" display="QTE@./menu.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>口味@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbQTEGroup</t>
+  </si>
+  <si>
+    <t>QTEGroupInfo</t>
+  </si>
+  <si>
+    <t>QTE组合@./menu.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1381,6 +1390,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" display="QTE@./menu.xlsx"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -133,7 +133,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>快递员@./bubble.xlsx,小女孩@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,小女孩@./bubble.xlsx</t>
   </si>
   <si>
     <t>food.TbMaterial</t>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -133,7 +133,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,小女孩@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,小女孩@./bubble.xlsx,卖鱼佬@./bubble.xlsx</t>
   </si>
   <si>
     <t>food.TbMaterial</t>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1152,7 +1152,7 @@
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="50.2583333333333" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="24765" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,小女孩@./bubble.xlsx,卖鱼佬@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx</t>
   </si>
   <si>
     <t>food.TbMaterial</t>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -233,47 +233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +282,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -356,7 +335,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,49 +377,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,115 +509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +594,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,148 +667,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,61 +816,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx</t>
+  </si>
+  <si>
+    <t>character.TbCword</t>
+  </si>
+  <si>
+    <t>Crowd</t>
+  </si>
+  <si>
+    <t>人群@./character.xlsx</t>
   </si>
   <si>
     <t>food.TbMaterial</t>
@@ -1141,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1358,7 +1367,7 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1372,7 +1381,7 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1404,9 +1413,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="QTE@./menu.xlsx"/>
+    <hyperlink ref="E11" r:id="rId1" display="QTE@./menu.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="30885" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>QTE组合@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>system.TbWeatherGroup</t>
+  </si>
+  <si>
+    <t>WeatherGroup</t>
+  </si>
+  <si>
+    <t>天气组@./system.xlsx</t>
+  </si>
+  <si>
+    <t>system.TbDayScheduler</t>
+  </si>
+  <si>
+    <t>DayScheduler</t>
+  </si>
+  <si>
+    <t>天气日程表@./system.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1427,6 +1445,34 @@
         <v>63</v>
       </c>
     </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" display="QTE@./menu.xlsx"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1180,7 +1180,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="50.2583333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="24.8" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21840" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -145,6 +145,15 @@
     <t>人群@./character.xlsx</t>
   </si>
   <si>
+    <t>character.TbBehaviourGroup</t>
+  </si>
+  <si>
+    <t>BehaviourGroup</t>
+  </si>
+  <si>
+    <t>人物行为组@./character.xlsx</t>
+  </si>
+  <si>
     <t>food.TbMaterial</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
   </si>
   <si>
     <t>天气日程表@./system.xlsx</t>
+  </si>
+  <si>
+    <t>common.TbGlobalConfig</t>
+  </si>
+  <si>
+    <t>GlobalConfig</t>
+  </si>
+  <si>
+    <t>全局配置@./global_config.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1399,7 +1417,7 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1413,7 +1431,7 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1473,9 +1491,37 @@
         <v>69</v>
       </c>
     </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="QTE@./menu.xlsx"/>
+    <hyperlink ref="E12" r:id="rId1" display="QTE@./menu.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx</t>
   </si>
   <si>
     <t>character.TbCword</t>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -118,6 +119,141 @@
     <t>人物基础信息@./character.xlsx</t>
   </si>
   <si>
+    <t>character.TbCharacterBubble</t>
+  </si>
+  <si>
+    <t>CharacterBubble</t>
+  </si>
+  <si>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx</t>
+  </si>
+  <si>
+    <t>character.TbCword</t>
+  </si>
+  <si>
+    <t>Crowd</t>
+  </si>
+  <si>
+    <t>人群@./character.xlsx</t>
+  </si>
+  <si>
+    <t>character.TbBehaviourGroup</t>
+  </si>
+  <si>
+    <t>BehaviourGroup</t>
+  </si>
+  <si>
+    <t>人物行为组@./character.xlsx</t>
+  </si>
+  <si>
+    <t>character.TbScheduleGroup</t>
+  </si>
+  <si>
+    <t>ScheduleGroup</t>
+  </si>
+  <si>
+    <t>人物行程组@./character.xlsx</t>
+  </si>
+  <si>
+    <t>character.TbCharacterPhase</t>
+  </si>
+  <si>
+    <t>CharacterPhase</t>
+  </si>
+  <si>
+    <t>人物阶段@./character.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbMaterial</t>
+  </si>
+  <si>
+    <t>FoodMaterial</t>
+  </si>
+  <si>
+    <t>食材@./material.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbMenuInfo</t>
+  </si>
+  <si>
+    <t>MenuInfo</t>
+  </si>
+  <si>
+    <t>菜谱@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>TbItem</t>
+  </si>
+  <si>
+    <t>ItemBaseInfo</t>
+  </si>
+  <si>
+    <t>道具@./items.xlsx</t>
+  </si>
+  <si>
+    <t>TbQTE</t>
+  </si>
+  <si>
+    <t>QTEInfo</t>
+  </si>
+  <si>
+    <t>QTE@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbCookPrefab</t>
+  </si>
+  <si>
+    <t>CookPrefabInfo</t>
+  </si>
+  <si>
+    <t>制作场景@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbFlavour</t>
+  </si>
+  <si>
+    <t>FlavourInfo</t>
+  </si>
+  <si>
+    <t>口味@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>food.TbQTEGroup</t>
+  </si>
+  <si>
+    <t>QTEGroupInfo</t>
+  </si>
+  <si>
+    <t>QTE组合@./menu.xlsx</t>
+  </si>
+  <si>
+    <t>system.TbWeatherGroup</t>
+  </si>
+  <si>
+    <t>WeatherGroup</t>
+  </si>
+  <si>
+    <t>天气组@./system.xlsx</t>
+  </si>
+  <si>
+    <t>system.TbDayScheduler</t>
+  </si>
+  <si>
+    <t>DayScheduler</t>
+  </si>
+  <si>
+    <t>天气日程表@./system.xlsx</t>
+  </si>
+  <si>
+    <t>common.TbGlobalConfig</t>
+  </si>
+  <si>
+    <t>GlobalConfig</t>
+  </si>
+  <si>
+    <t>全局配置@./global_config.xlsx</t>
+  </si>
+  <si>
     <t>character.TbSchedule</t>
   </si>
   <si>
@@ -125,123 +261,6 @@
   </si>
   <si>
     <t>人物出现时间@./character.xlsx</t>
-  </si>
-  <si>
-    <t>character.TbCharacterBubble</t>
-  </si>
-  <si>
-    <t>CharacterBubble</t>
-  </si>
-  <si>
-    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx</t>
-  </si>
-  <si>
-    <t>character.TbCword</t>
-  </si>
-  <si>
-    <t>Crowd</t>
-  </si>
-  <si>
-    <t>人群@./character.xlsx</t>
-  </si>
-  <si>
-    <t>character.TbBehaviourGroup</t>
-  </si>
-  <si>
-    <t>BehaviourGroup</t>
-  </si>
-  <si>
-    <t>人物行为组@./character.xlsx</t>
-  </si>
-  <si>
-    <t>food.TbMaterial</t>
-  </si>
-  <si>
-    <t>FoodMaterial</t>
-  </si>
-  <si>
-    <t>食材@./material.xlsx</t>
-  </si>
-  <si>
-    <t>food.TbMenuInfo</t>
-  </si>
-  <si>
-    <t>MenuInfo</t>
-  </si>
-  <si>
-    <t>菜谱@./menu.xlsx</t>
-  </si>
-  <si>
-    <t>TbItem</t>
-  </si>
-  <si>
-    <t>ItemBaseInfo</t>
-  </si>
-  <si>
-    <t>道具@./items.xlsx</t>
-  </si>
-  <si>
-    <t>TbQTE</t>
-  </si>
-  <si>
-    <t>QTEInfo</t>
-  </si>
-  <si>
-    <t>QTE@./menu.xlsx</t>
-  </si>
-  <si>
-    <t>food.TbCookPrefab</t>
-  </si>
-  <si>
-    <t>CookPrefabInfo</t>
-  </si>
-  <si>
-    <t>制作场景@./menu.xlsx</t>
-  </si>
-  <si>
-    <t>food.TbFlavour</t>
-  </si>
-  <si>
-    <t>FlavourInfo</t>
-  </si>
-  <si>
-    <t>口味@./menu.xlsx</t>
-  </si>
-  <si>
-    <t>food.TbQTEGroup</t>
-  </si>
-  <si>
-    <t>QTEGroupInfo</t>
-  </si>
-  <si>
-    <t>QTE组合@./menu.xlsx</t>
-  </si>
-  <si>
-    <t>system.TbWeatherGroup</t>
-  </si>
-  <si>
-    <t>WeatherGroup</t>
-  </si>
-  <si>
-    <t>天气组@./system.xlsx</t>
-  </si>
-  <si>
-    <t>system.TbDayScheduler</t>
-  </si>
-  <si>
-    <t>DayScheduler</t>
-  </si>
-  <si>
-    <t>天气日程表@./system.xlsx</t>
-  </si>
-  <si>
-    <t>common.TbGlobalConfig</t>
-  </si>
-  <si>
-    <t>GlobalConfig</t>
-  </si>
-  <si>
-    <t>全局配置@./global_config.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1431,7 +1450,7 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1445,7 +1464,7 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1519,12 +1538,62 @@
         <v>75</v>
       </c>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="QTE@./menu.xlsx"/>
+    <hyperlink ref="E13" r:id="rId1" display="QTE@./menu.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -125,7 +125,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx,伊万@./bubble.xlsx</t>
   </si>
   <si>
     <t>character.TbCword</t>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>全局配置@./global_config.xlsx</t>
+  </si>
+  <si>
+    <t>common.TbFlavourStrs</t>
+  </si>
+  <si>
+    <t>FlavourStrs</t>
+  </si>
+  <si>
+    <t>口味对应文字@./global_config.xlsx</t>
+  </si>
+  <si>
+    <t>common.TbCookToolStrs</t>
+  </si>
+  <si>
+    <t>CookToolStrs</t>
+  </si>
+  <si>
+    <t>厨具名字@./global_config.xlsx</t>
   </si>
   <si>
     <t>character.TbSchedule</t>
@@ -1205,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1550,6 +1568,34 @@
       </c>
       <c r="E19" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1580,16 +1626,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="19725" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -270,6 +270,24 @@
   </si>
   <si>
     <t>厨具名字@./global_config.xlsx</t>
+  </si>
+  <si>
+    <t>phone.TbAppBaseInfo</t>
+  </si>
+  <si>
+    <t>AppBaseInfo</t>
+  </si>
+  <si>
+    <t>app@./phone.xlsx</t>
+  </si>
+  <si>
+    <t>phone.app_news</t>
+  </si>
+  <si>
+    <t>AppNewsInfo</t>
+  </si>
+  <si>
+    <t>news@./phone.xlsx</t>
   </si>
   <si>
     <t>character.TbSchedule</t>
@@ -894,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +920,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1598,9 +1619,39 @@
         <v>84</v>
       </c>
     </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1" display="QTE@./menu.xlsx"/>
+    <hyperlink ref="E22" r:id="rId2" display="app@./phone.xlsx"/>
+    <hyperlink ref="E23" r:id="rId3" display="news@./phone.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1626,16 +1677,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,7 +138,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,杂鱼A@./bubble.xlsx,伊万@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,宇轩@./bubble.xlsx,伊万@./bubble.xlsx,费南多@./bubble.xlsx</t>
   </si>
   <si>
     <t>character.TbCword</t>
@@ -302,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -912,12 +925,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1247,7 +1263,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1381,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" ht="28.5" spans="2:5">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1391,7 +1407,7 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1503,7 +1519,7 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1629,7 +1645,7 @@
       <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1643,7 +1659,7 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>90</v>
       </c>
     </row>

--- a/DataConfig/Datas/__tables__.xlsx
+++ b/DataConfig/Datas/__tables__.xlsx
@@ -138,7 +138,7 @@
     <t>CharacterBubble</t>
   </si>
   <si>
-    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,宇轩@./bubble.xlsx,伊万@./bubble.xlsx,费南多@./bubble.xlsx</t>
+    <t>章鱼@./bubble.xlsx,喵老师@./bubble.xlsx,宇轩@./bubble.xlsx,伊万@./bubble.xlsx,费南多@./bubble.xlsx,路人A@./bubble.xlsx,路人B@./bubble.xlsx,路人C@./bubble.xlsx</t>
   </si>
   <si>
     <t>character.TbCword</t>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1397,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="2:5">
+    <row r="5" ht="42.75" spans="2:5">
       <c r="B5" t="s">
         <v>34</v>
       </c>
